--- a/spreadsheet/macrofree/asb_security_checklist.en.xlsx
+++ b/spreadsheet/macrofree/asb_security_checklist.en.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Use customer-managed key option in data at rest encryption when required</t>
+          <t xml:space="preserve">Use customer-managed key option in data at rest encryption when required </t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="I8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J8" s="23" t="n"/>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Avoid using root account when it is not necessary</t>
+          <t>Avoid using root account when it isn't necessary</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>

--- a/spreadsheet/macrofree/asb_security_checklist.en.xlsx
+++ b/spreadsheet/macrofree/asb_security_checklist.en.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use customer-managed key option in data at rest encryption when required </t>
+          <t>Use customer-managed key option in data at rest encryption when required</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">

--- a/spreadsheet/macrofree/asb_security_checklist.en.xlsx
+++ b/spreadsheet/macrofree/asb_security_checklist.en.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Use customer-managed key option in data at rest encryption when required</t>
+          <t xml:space="preserve">Use customer-managed key option in data at rest encryption when required </t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
